--- a/mongodb/xls/nutrients.xlsx
+++ b/mongodb/xls/nutrients.xlsx
@@ -193,13 +193,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
